--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB269F4-5D60-4B60-BE14-44FFB3D9075A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C5A085-0BA2-4C9D-95F6-170060B1CC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="23535" yWindow="4635" windowWidth="21600" windowHeight="11835" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,7 +141,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>43926</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B4" si="1">C3+D3+E3+F3+G3</f>
+        <f t="shared" ref="B3:B5" si="1">C3+D3+E3+F3+G3</f>
         <v>33</v>
       </c>
       <c r="C3">
@@ -690,6 +690,61 @@
       <c r="P4" s="2">
         <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43928</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5" si="9">B5</f>
+        <v>39</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5" si="10">C5/$B5</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5" si="11">D5/$B5</f>
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5" si="12">E5/$B5</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5" si="13">F5/$B5</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" ref="O5" si="14">G5/$B5</f>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ref="P5" si="15">SUM(K5:O5)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C5A085-0BA2-4C9D-95F6-170060B1CC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08216EEA-E5E6-4239-BEE7-56D433810F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23535" yWindow="4635" windowWidth="21600" windowHeight="11835" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="2190" yWindow="2205" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,6 +747,61 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6" si="16">C6+D6+E6+F6+G6</f>
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43929</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6" si="17">B6</f>
+        <v>48</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6" si="18">C6/$B6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ref="L6" si="19">D6/$B6</f>
+        <v>0.5625</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ref="M6" si="20">E6/$B6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6" si="21">F6/$B6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6" si="22">G6/$B6</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" ref="P6" si="23">SUM(K6:O6)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -754,10 +809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,6 +985,84 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5" si="1">SUM(C5:L5)</f>
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6" si="2">SUM(C6:L6)</f>
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -937,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C24" si="0">C3+B4</f>
+        <f t="shared" ref="C4:C25" si="0">C3+B4</f>
         <v>1</v>
       </c>
     </row>
@@ -1233,6 +1366,30 @@
       <c r="C24">
         <f t="shared" si="0"/>
         <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26" si="1">C25+B26</f>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08216EEA-E5E6-4239-BEE7-56D433810F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB97DB-8FF7-4B6E-A6DA-C2B113D52A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="2205" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="2190" yWindow="2205" windowWidth="20730" windowHeight="11760" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,6 +802,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7" si="24">C7+D7+E7+F7+G7</f>
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43930</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7" si="25">B7</f>
+        <v>55</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7" si="26">C7/$B7</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7" si="27">D7/$B7</f>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7" si="28">E7/$B7</f>
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7" si="29">F7/$B7</f>
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ref="O7" si="30">G7/$B7</f>
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" ref="P7" si="31">SUM(K7:O7)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -809,10 +864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +1007,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -964,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -991,7 +1046,7 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5" si="1">SUM(C5:L5)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1003,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1060,6 +1115,45 @@
         <v>2</v>
       </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7" si="3">SUM(C7:L7)</f>
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
     </row>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB97DB-8FF7-4B6E-A6DA-C2B113D52A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C1DC2-E5A3-4C22-811B-477D18D928F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="2205" windowWidth="20730" windowHeight="11760" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="2190" yWindow="2205" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Día</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Suma</t>
+  </si>
+  <si>
+    <t>Caborca</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,6 +860,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8" si="32">C8+D8+E8+F8+G8</f>
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43931</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="33">B8</f>
+        <v>69</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ref="K8" si="34">C8/$B8</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8" si="35">D8/$B8</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ref="M8" si="36">E8/$B8</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8" si="37">F8/$B8</f>
+        <v>0.10144927536231885</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8" si="38">G8/$B8</f>
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" ref="P8" si="39">SUM(K8:O8)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -864,10 +922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +943,7 @@
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -922,8 +980,11 @@
       <c r="L1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43925</v>
       </c>
@@ -961,8 +1022,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43926</v>
       </c>
@@ -1000,8 +1064,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43927</v>
       </c>
@@ -1039,8 +1106,11 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43928</v>
       </c>
@@ -1078,8 +1148,11 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43929</v>
       </c>
@@ -1117,8 +1190,11 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43930</v>
       </c>
@@ -1155,6 +1231,51 @@
       </c>
       <c r="L7">
         <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B8">
+        <f>SUM(C8:M8)</f>
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1164,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,6 +1607,30 @@
         <v>48</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C28" si="2">C26+B27</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C1DC2-E5A3-4C22-811B-477D18D928F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C723239C-9958-415D-8873-02F8456D15F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="2205" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="16710" yWindow="-180" windowWidth="20730" windowHeight="11760" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,6 +915,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9" si="40">C9+D9+E9+F9+G9</f>
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43932</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9" si="41">B9</f>
+        <v>83</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ref="K9" si="42">C9/$B9</f>
+        <v>7.2289156626506021E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ref="L9" si="43">D9/$B9</f>
+        <v>0.63855421686746983</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" ref="M9" si="44">E9/$B9</f>
+        <v>0.10843373493975904</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" ref="N9" si="45">F9/$B9</f>
+        <v>8.4337349397590355E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" ref="O9" si="46">G9/$B9</f>
+        <v>9.6385542168674704E-2</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" ref="P9" si="47">SUM(K9:O9)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -922,10 +977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,6 +1333,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B9">
+        <f>SUM(C9:M9)</f>
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1285,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,6 +1728,18 @@
         <v>69</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29" si="3">C28+B29</f>
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C723239C-9958-415D-8873-02F8456D15F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C4CEEE-D364-4104-8417-D2913D6CEAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16710" yWindow="-180" windowWidth="20730" windowHeight="11760" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="17640" yWindow="510" windowWidth="20730" windowHeight="11760" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,6 +970,61 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10" si="48">C10+D10+E10+F10+G10</f>
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1">
+        <v>43933</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10" si="49">B10</f>
+        <v>86</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" ref="K10" si="50">C10/$B10</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10" si="51">D10/$B10</f>
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ref="M10" si="52">E10/$B10</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" ref="N10" si="53">F10/$B10</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" ref="O10" si="54">G10/$B10</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" ref="P10" si="55">SUM(K10:O10)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -977,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,6 +1430,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B10">
+        <f>SUM(C10:M10)</f>
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1382,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,6 +1837,18 @@
         <v>83</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30" si="4">C29+B30</f>
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C4CEEE-D364-4104-8417-D2913D6CEAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402ADF88-6174-4FE6-8D61-6193F328FED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="510" windowWidth="20730" windowHeight="11760" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="21330" yWindow="3900" windowWidth="14745" windowHeight="8370" activeTab="2" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,6 +1025,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11" si="56">C11+D11+E11+F11+G11</f>
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43934</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="57">B11</f>
+        <v>88</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ref="K11" si="58">C11/$B11</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ref="L11" si="59">D11/$B11</f>
+        <v>0.67045454545454541</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ref="M11" si="60">E11/$B11</f>
+        <v>5.6818181818181816E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ref="N11" si="61">F11/$B11</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" ref="O11" si="62">G11/$B11</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" ref="P11" si="63">SUM(K11:O11)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1032,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,6 +1527,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B11">
+        <f>SUM(C11:M11)</f>
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1479,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,6 +1946,18 @@
         <v>86</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31" si="5">C30+B31</f>
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402ADF88-6174-4FE6-8D61-6193F328FED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA1805E-ABE0-4052-B8DB-7708D5AEC453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21330" yWindow="3900" windowWidth="14745" windowHeight="8370" activeTab="2" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="5205" yWindow="2280" windowWidth="14745" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,6 +1080,61 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12" si="64">C12+D12+E12+F12+G12</f>
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43935</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="65">B12</f>
+        <v>97</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ref="K12" si="66">C12/$B12</f>
+        <v>6.1855670103092786E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ref="L12" si="67">D12/$B12</f>
+        <v>0.68041237113402064</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ref="M12" si="68">E12/$B12</f>
+        <v>6.1855670103092786E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" ref="N12" si="69">F12/$B12</f>
+        <v>7.2164948453608241E-2</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" ref="O12" si="70">G12/$B12</f>
+        <v>0.12371134020618557</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" ref="P12" si="71">SUM(K12:O12)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1087,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,6 +1624,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B12">
+        <f>SUM(C12:M12)</f>
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1576,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,6 +2055,18 @@
         <v>88</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32" si="6">C31+B32</f>
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA1805E-ABE0-4052-B8DB-7708D5AEC453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAE78D9-CFB7-4926-9AAB-6EC6FB2C6DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="2280" windowWidth="14745" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="21240" yWindow="4185" windowWidth="14745" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Día</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Caborca</t>
+  </si>
+  <si>
+    <t>Agua Prieta</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,6 +1138,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13" si="72">C13+D13+E13+F13+G13</f>
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43936</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="73">B13</f>
+        <v>109</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" ref="K13" si="74">C13/$B13</f>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13" si="75">D13/$B13</f>
+        <v>0.72477064220183485</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13" si="76">E13/$B13</f>
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ref="N13" si="77">F13/$B13</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" ref="O13" si="78">G13/$B13</f>
+        <v>0.11009174311926606</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" ref="P13" si="79">SUM(K13:O13)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1142,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1221,7 @@
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1203,8 +1261,11 @@
       <c r="M1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43925</v>
       </c>
@@ -1245,8 +1306,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43926</v>
       </c>
@@ -1287,8 +1351,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43927</v>
       </c>
@@ -1329,8 +1396,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43928</v>
       </c>
@@ -1371,8 +1441,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43929</v>
       </c>
@@ -1413,8 +1486,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43930</v>
       </c>
@@ -1455,8 +1531,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43931</v>
       </c>
@@ -1497,8 +1576,11 @@
       <c r="M8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43932</v>
       </c>
@@ -1539,8 +1621,11 @@
       <c r="M9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43933</v>
       </c>
@@ -1581,8 +1666,11 @@
       <c r="M10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43934</v>
       </c>
@@ -1623,8 +1711,11 @@
       <c r="M11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43935</v>
       </c>
@@ -1664,6 +1755,54 @@
       </c>
       <c r="M12">
         <v>4</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B13">
+        <f>SUM(C13:N13)</f>
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1673,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,6 +2206,18 @@
         <v>97</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33" si="7">C32+B33</f>
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAE78D9-CFB7-4926-9AAB-6EC6FB2C6DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671B6918-A1C5-411A-A2CB-B12854D874E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21240" yWindow="4185" windowWidth="14745" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="I4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,6 +1193,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14" si="80">C14+D14+E14+F14+G14</f>
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>84</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1">
+        <v>43937</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="81">B14</f>
+        <v>117</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" ref="K14" si="82">C14/$B14</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ref="L14" si="83">D14/$B14</f>
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" ref="M14" si="84">E14/$B14</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" ref="N14" si="85">F14/$B14</f>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" ref="O14" si="86">G14/$B14</f>
+        <v>0.11965811965811966</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" ref="P14" si="87">SUM(K14:O14)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1200,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,6 +1860,51 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B14">
+        <f>SUM(C14:N14)</f>
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>49</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1812,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,6 +2318,18 @@
         <v>109</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34" si="8">C33+B34</f>
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671B6918-A1C5-411A-A2CB-B12854D874E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0E0DCD-F366-440D-8297-AE8A386FE96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="20535" yWindow="-195" windowWidth="15585" windowHeight="8370" activeTab="1" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Día</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Agua Prieta</t>
+  </si>
+  <si>
+    <t>Etchojoa</t>
   </si>
 </sst>
 </file>
@@ -463,9 +466,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1248,6 +1251,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15" si="88">C15+D15+E15+F15+G15</f>
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
+        <v>43938</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15" si="89">B15</f>
+        <v>124</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" ref="K15" si="90">C15/$B15</f>
+        <v>5.6451612903225805E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" ref="L15" si="91">D15/$B15</f>
+        <v>0.72580645161290325</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15" si="92">E15/$B15</f>
+        <v>5.6451612903225805E-2</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" ref="N15" si="93">F15/$B15</f>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" ref="O15" si="94">G15/$B15</f>
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" ref="P15" si="95">SUM(K15:O15)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1255,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,9 +1332,10 @@
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1319,8 +1378,11 @@
       <c r="N1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43925</v>
       </c>
@@ -1364,8 +1426,11 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43926</v>
       </c>
@@ -1409,8 +1474,11 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43927</v>
       </c>
@@ -1454,8 +1522,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43928</v>
       </c>
@@ -1499,8 +1570,11 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43929</v>
       </c>
@@ -1544,8 +1618,11 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43930</v>
       </c>
@@ -1589,8 +1666,11 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43931</v>
       </c>
@@ -1634,8 +1714,11 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43932</v>
       </c>
@@ -1679,8 +1762,11 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43933</v>
       </c>
@@ -1724,8 +1810,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43934</v>
       </c>
@@ -1769,8 +1858,11 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43935</v>
       </c>
@@ -1814,8 +1906,11 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43936</v>
       </c>
@@ -1859,8 +1954,11 @@
       <c r="N13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43937</v>
       </c>
@@ -1902,6 +2000,57 @@
         <v>4</v>
       </c>
       <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B15">
+        <f>SUM(C15:O15)</f>
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>1</v>
       </c>
     </row>
@@ -1912,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,6 +2479,18 @@
         <v>117</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35" si="9">C34+B35</f>
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0E0DCD-F366-440D-8297-AE8A386FE96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDC79AA-A278-49D2-A0EC-E4565AB5EF0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20535" yWindow="-195" windowWidth="15585" windowHeight="8370" activeTab="1" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="1500" yWindow="1875" windowWidth="15585" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,6 +1306,61 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16" si="96">C16+D16+E16+F16+G16</f>
+        <v>133</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1">
+        <v>43939</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16" si="97">B16</f>
+        <v>133</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16" si="98">C16/$B16</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" ref="L16" si="99">D16/$B16</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" ref="M16" si="100">E16/$B16</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" ref="N16" si="101">F16/$B16</f>
+        <v>3.7593984962406013E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" ref="O16" si="102">G16/$B16</f>
+        <v>0.12030075187969924</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" ref="P16" si="103">SUM(K16:O16)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1313,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,6 +2109,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B16">
+        <f>SUM(C16:O16)</f>
+        <v>133</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>58</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2061,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,6 +2594,18 @@
         <v>124</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36" si="10">C35+B36</f>
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDC79AA-A278-49D2-A0EC-E4565AB5EF0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F188D-4D74-4941-9B6C-5483E32DBA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1875" windowWidth="15585" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="1500" yWindow="1860" windowWidth="15585" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -466,27 +466,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1359,6 +1360,61 @@
       <c r="P16" s="2">
         <f t="shared" ref="P16" si="103">SUM(K16:O16)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17" si="104">C17+D17+E17+F17+G17</f>
+        <v>152</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>112</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1">
+        <v>43940</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="105">B17</f>
+        <v>152</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" ref="K17" si="106">C17/$B17</f>
+        <v>7.2368421052631582E-2</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" ref="L17" si="107">D17/$B17</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" ref="M17" si="108">E17/$B17</f>
+        <v>4.6052631578947366E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" ref="N17" si="109">F17/$B17</f>
+        <v>3.9473684210526314E-2</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" ref="O17" si="110">G17/$B17</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" ref="P17" si="111">SUM(K17:O17)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -1368,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,6 +2213,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B17">
+        <f>SUM(C17:O17)</f>
+        <v>152</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>73</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F188D-4D74-4941-9B6C-5483E32DBA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84CE7CC-2AD3-4DA4-AB60-781C008DBCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1860" windowWidth="15585" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="1500" yWindow="1860" windowWidth="15585" windowHeight="8370" activeTab="1" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Día</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Etchojoa</t>
+  </si>
+  <si>
+    <t>Sonoyta</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1424,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1449,7 @@
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1492,8 +1495,11 @@
       <c r="O1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43925</v>
       </c>
@@ -1540,8 +1546,11 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43926</v>
       </c>
@@ -1588,8 +1597,11 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43927</v>
       </c>
@@ -1636,8 +1648,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43928</v>
       </c>
@@ -1684,8 +1699,11 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43929</v>
       </c>
@@ -1732,8 +1750,11 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43930</v>
       </c>
@@ -1780,8 +1801,11 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43931</v>
       </c>
@@ -1828,8 +1852,11 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43932</v>
       </c>
@@ -1876,8 +1903,11 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43933</v>
       </c>
@@ -1924,8 +1954,11 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43934</v>
       </c>
@@ -1972,8 +2005,11 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43935</v>
       </c>
@@ -2020,8 +2056,11 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43936</v>
       </c>
@@ -2068,8 +2107,11 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43937</v>
       </c>
@@ -2116,8 +2158,11 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43938</v>
       </c>
@@ -2164,8 +2209,11 @@
       <c r="O15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43939</v>
       </c>
@@ -2212,8 +2260,11 @@
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43940</v>
       </c>
@@ -2258,6 +2309,60 @@
         <v>1</v>
       </c>
       <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B18">
+        <f>SUM(C18:P18)</f>
+        <v>157</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>1</v>
       </c>
     </row>
@@ -2268,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,6 +2815,30 @@
         <v>133</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:C38" si="11">C36+B37</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="11"/>
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84CE7CC-2AD3-4DA4-AB60-781C008DBCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0FD364-89C0-4294-80E0-8899A9B86C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1860" windowWidth="15585" windowHeight="8370" activeTab="1" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="20700" yWindow="-420" windowWidth="15585" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,6 +1420,116 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B19" si="112">C18+D18+E18+F18+G18</f>
+        <v>157</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>117</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1">
+        <v>43941</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J19" si="113">B18</f>
+        <v>157</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" ref="K18:K19" si="114">C18/$B18</f>
+        <v>7.6433121019108277E-2</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" ref="L18:L19" si="115">D18/$B18</f>
+        <v>0.74522292993630568</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" ref="M18:M19" si="116">E18/$B18</f>
+        <v>3.1847133757961783E-2</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ref="N18:N19" si="117">F18/$B18</f>
+        <v>3.8216560509554139E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" ref="O18:O19" si="118">G18/$B18</f>
+        <v>0.10828025477707007</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" ref="P18:P19" si="119">SUM(K18:O18)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="112"/>
+        <v>165</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>124</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1">
+        <v>43942</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="113"/>
+        <v>165</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="114"/>
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="115"/>
+        <v>0.75151515151515147</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="116"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="117"/>
+        <v>4.2424242424242427E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="118"/>
+        <v>0.10303030303030303</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1427,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,6 +2476,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B19">
+        <f>SUM(C19:P19)</f>
+        <v>165</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>79</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2373,10 +2534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2839,6 +3000,18 @@
         <v>157</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="12">C38+B39</f>
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0FD364-89C0-4294-80E0-8899A9B86C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23BA7B1-EC48-4352-8D53-96BA1BC4D94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="-420" windowWidth="15585" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1540,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23BA7B1-EC48-4352-8D53-96BA1BC4D94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950969DA-02B5-4849-A723-62DD4876CDFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="20235" yWindow="-300" windowWidth="15585" windowHeight="8370" activeTab="1" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Día</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Sonoyta</t>
+  </si>
+  <si>
+    <t>Pto Peñasco</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,992 +546,2147 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43925</v>
+        <v>43905</v>
       </c>
       <c r="B2">
-        <f>C2+D2+E2+F2+G2</f>
-        <v>29</v>
+        <f t="shared" ref="B2:B21" si="0">C2+D2+E2+F2+G2</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>43925</v>
+        <v>43905</v>
       </c>
       <c r="J2">
-        <f>B2</f>
-        <v>29</v>
-      </c>
-      <c r="K2" s="2">
-        <f>C2/$B2</f>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:O2" si="0">D2/$B2</f>
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="M2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="N2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13793103448275862</v>
-      </c>
-      <c r="O2" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="P2" s="2">
-        <f>SUM(K2:O2)</f>
-        <v>1.0000000000000002</v>
+        <f t="shared" ref="J2:J21" si="1">B2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="e">
+        <f t="shared" ref="K2:K21" si="2">C2/$B2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="2" t="e">
+        <f t="shared" ref="L2:L21" si="3">D2/$B2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" s="2" t="e">
+        <f t="shared" ref="M2:M21" si="4">E2/$B2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" s="2" t="e">
+        <f t="shared" ref="N2:N21" si="5">F2/$B2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2" s="2" t="e">
+        <f t="shared" ref="O2:O21" si="6">G2/$B2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P2" s="2" t="e">
+        <f t="shared" ref="P2:P21" si="7">SUM(K2:O2)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43926</v>
+        <v>43906</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B5" si="1">C3+D3+E3+F3+G3</f>
-        <v>33</v>
+        <f t="shared" ref="B3:B21" si="8">C3+D3+E3+F3+G3</f>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>43926</v>
+        <v>43906</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J4" si="2">B3</f>
-        <v>33</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K4" si="3">C3/$B3</f>
-        <v>6.0606060606060608E-2</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L4" si="4">D3/$B3</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M4" si="5">E3/$B3</f>
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" ref="N3:N4" si="6">F3/$B3</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O4" si="7">G3/$B3</f>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" ref="P3:P4" si="8">SUM(K3:O3)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43927</v>
+        <v>43907</v>
       </c>
       <c r="B4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>43907</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1">
-        <v>43927</v>
-      </c>
-      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="K4" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L4" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="M4" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="2" t="e">
         <f t="shared" si="5"/>
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="N4" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O4" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43928</v>
+        <v>43908</v>
       </c>
       <c r="B5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43908</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>43928</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5" si="9">B5</f>
-        <v>39</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" ref="K5" si="10">C5/$B5</f>
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" ref="L5" si="11">D5/$B5</f>
-        <v>0.51282051282051277</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" ref="M5" si="12">E5/$B5</f>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" ref="N5" si="13">F5/$B5</f>
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" ref="O5" si="14">G5/$B5</f>
-        <v>0.12820512820512819</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" ref="P5" si="15">SUM(K5:O5)</f>
-        <v>0.99999999999999989</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43929</v>
+        <v>43909</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6" si="16">C6+D6+E6+F6+G6</f>
-        <v>48</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>43929</v>
+        <v>43909</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6" si="17">B6</f>
-        <v>48</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" ref="K6" si="18">C6/$B6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" ref="L6" si="19">D6/$B6</f>
-        <v>0.5625</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" ref="M6" si="20">E6/$B6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" ref="N6" si="21">F6/$B6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" ref="O6" si="22">G6/$B6</f>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" ref="P6" si="23">SUM(K6:O6)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43930</v>
+        <v>43910</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7" si="24">C7+D7+E7+F7+G7</f>
-        <v>55</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>43930</v>
+        <v>43910</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7" si="25">B7</f>
-        <v>55</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" ref="K7" si="26">C7/$B7</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" ref="L7" si="27">D7/$B7</f>
-        <v>0.52727272727272723</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" ref="M7" si="28">E7/$B7</f>
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" ref="N7" si="29">F7/$B7</f>
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" ref="O7" si="30">G7/$B7</f>
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" ref="P7" si="31">SUM(K7:O7)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43931</v>
+        <v>43911</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8" si="32">C8+D8+E8+F8+G8</f>
-        <v>69</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>43931</v>
+        <v>43911</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8" si="33">B8</f>
-        <v>69</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" ref="K8" si="34">C8/$B8</f>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" ref="L8" si="35">D8/$B8</f>
-        <v>0.56521739130434778</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" ref="M8" si="36">E8/$B8</f>
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" ref="N8" si="37">F8/$B8</f>
-        <v>0.10144927536231885</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" ref="O8" si="38">G8/$B8</f>
-        <v>0.11594202898550725</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" ref="P8" si="39">SUM(K8:O8)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43932</v>
+        <v>43912</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9" si="40">C9+D9+E9+F9+G9</f>
-        <v>83</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>43932</v>
+        <v>43912</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9" si="41">B9</f>
-        <v>83</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" ref="K9" si="42">C9/$B9</f>
-        <v>7.2289156626506021E-2</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" ref="L9" si="43">D9/$B9</f>
-        <v>0.63855421686746983</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" ref="M9" si="44">E9/$B9</f>
-        <v>0.10843373493975904</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" ref="N9" si="45">F9/$B9</f>
-        <v>8.4337349397590355E-2</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" ref="O9" si="46">G9/$B9</f>
-        <v>9.6385542168674704E-2</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" ref="P9" si="47">SUM(K9:O9)</f>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43933</v>
+        <v>43913</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10" si="48">C10+D10+E10+F10+G10</f>
-        <v>86</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>43933</v>
+        <v>43913</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10" si="49">B10</f>
-        <v>86</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" ref="K10" si="50">C10/$B10</f>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" ref="L10" si="51">D10/$B10</f>
-        <v>0.62790697674418605</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" ref="M10" si="52">E10/$B10</f>
-        <v>9.3023255813953487E-2</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" ref="N10" si="53">F10/$B10</f>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" ref="O10" si="54">G10/$B10</f>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" ref="P10" si="55">SUM(K10:O10)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43934</v>
+        <v>43914</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11" si="56">C11+D11+E11+F11+G11</f>
-        <v>88</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>43934</v>
+        <v>43914</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11" si="57">B11</f>
-        <v>88</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" ref="K11" si="58">C11/$B11</f>
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" ref="L11" si="59">D11/$B11</f>
-        <v>0.67045454545454541</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" ref="M11" si="60">E11/$B11</f>
-        <v>5.6818181818181816E-2</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" ref="N11" si="61">F11/$B11</f>
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" ref="O11" si="62">G11/$B11</f>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" ref="P11" si="63">SUM(K11:O11)</f>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43935</v>
+        <v>43915</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12" si="64">C12+D12+E12+F12+G12</f>
-        <v>97</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>43935</v>
+        <v>43915</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12" si="65">B12</f>
-        <v>97</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" ref="K12" si="66">C12/$B12</f>
-        <v>6.1855670103092786E-2</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" ref="L12" si="67">D12/$B12</f>
-        <v>0.68041237113402064</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" ref="M12" si="68">E12/$B12</f>
-        <v>6.1855670103092786E-2</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" ref="N12" si="69">F12/$B12</f>
-        <v>7.2164948453608241E-2</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" ref="O12" si="70">G12/$B12</f>
-        <v>0.12371134020618557</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" ref="P12" si="71">SUM(K12:O12)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43936</v>
+        <v>43916</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13" si="72">C13+D13+E13+F13+G13</f>
-        <v>109</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>43936</v>
+        <v>43916</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13" si="73">B13</f>
-        <v>109</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" ref="K13" si="74">C13/$B13</f>
-        <v>5.5045871559633031E-2</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" ref="L13" si="75">D13/$B13</f>
-        <v>0.72477064220183485</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" ref="M13" si="76">E13/$B13</f>
-        <v>4.5871559633027525E-2</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" ref="N13" si="77">F13/$B13</f>
-        <v>6.4220183486238536E-2</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" ref="O13" si="78">G13/$B13</f>
-        <v>0.11009174311926606</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" ref="P13" si="79">SUM(K13:O13)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43937</v>
+        <v>43917</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14" si="80">C14+D14+E14+F14+G14</f>
-        <v>117</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>43937</v>
+        <v>43917</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14" si="81">B14</f>
-        <v>117</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" ref="K14" si="82">C14/$B14</f>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" ref="L14" si="83">D14/$B14</f>
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" ref="M14" si="84">E14/$B14</f>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" ref="N14" si="85">F14/$B14</f>
-        <v>5.9829059829059832E-2</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" ref="O14" si="86">G14/$B14</f>
-        <v>0.11965811965811966</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" ref="P14" si="87">SUM(K14:O14)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43938</v>
+        <v>43918</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15" si="88">C15+D15+E15+F15+G15</f>
-        <v>124</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>43938</v>
+        <v>43918</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15" si="89">B15</f>
-        <v>124</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" ref="K15" si="90">C15/$B15</f>
-        <v>5.6451612903225805E-2</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" ref="L15" si="91">D15/$B15</f>
-        <v>0.72580645161290325</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" ref="M15" si="92">E15/$B15</f>
-        <v>5.6451612903225805E-2</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" ref="N15" si="93">F15/$B15</f>
-        <v>4.8387096774193547E-2</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" ref="O15" si="94">G15/$B15</f>
-        <v>0.11290322580645161</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" ref="P15" si="95">SUM(K15:O15)</f>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43939</v>
+        <v>43919</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16" si="96">C16+D16+E16+F16+G16</f>
-        <v>133</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>43939</v>
+        <v>43919</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16" si="97">B16</f>
-        <v>133</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" ref="K16" si="98">C16/$B16</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" ref="L16" si="99">D16/$B16</f>
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" ref="M16" si="100">E16/$B16</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" ref="N16" si="101">F16/$B16</f>
-        <v>3.7593984962406013E-2</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" ref="O16" si="102">G16/$B16</f>
-        <v>0.12030075187969924</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" ref="P16" si="103">SUM(K16:O16)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43940</v>
+        <v>43920</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17" si="104">C17+D17+E17+F17+G17</f>
-        <v>152</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>43940</v>
+        <v>43920</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17" si="105">B17</f>
-        <v>152</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" ref="K17" si="106">C17/$B17</f>
-        <v>7.2368421052631582E-2</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" ref="L17" si="107">D17/$B17</f>
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" ref="M17" si="108">E17/$B17</f>
-        <v>4.6052631578947366E-2</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" ref="N17" si="109">F17/$B17</f>
-        <v>3.9473684210526314E-2</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" ref="O17" si="110">G17/$B17</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" ref="P17" si="111">SUM(K17:O17)</f>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43941</v>
+        <v>43921</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B19" si="112">C18+D18+E18+F18+G18</f>
-        <v>157</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>43941</v>
+        <v>43921</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J19" si="113">B18</f>
-        <v>157</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" ref="K18:K19" si="114">C18/$B18</f>
-        <v>7.6433121019108277E-2</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" ref="L18:L19" si="115">D18/$B18</f>
-        <v>0.74522292993630568</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" ref="M18:M19" si="116">E18/$B18</f>
-        <v>3.1847133757961783E-2</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" ref="N18:N19" si="117">F18/$B18</f>
-        <v>3.8216560509554139E-2</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" ref="O18:O19" si="118">G18/$B18</f>
-        <v>0.10828025477707007</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" ref="P18:P19" si="119">SUM(K18:O18)</f>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>43922</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>43923</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>43924</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B22">
+        <f>C22+D22+E22+F22+G22</f>
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>43925</v>
+      </c>
+      <c r="J22">
+        <f>B22</f>
+        <v>29</v>
+      </c>
+      <c r="K22" s="2">
+        <f>C22/$B22</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" ref="L22:O22" si="9">D22/$B22</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="9"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="9"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="9"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="P22" s="2">
+        <f>SUM(K22:O22)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:B25" si="10">C23+D23+E23+F23+G23</f>
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>43926</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J24" si="11">B23</f>
+        <v>33</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" ref="K23:K24" si="12">C23/$B23</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" ref="L23:L24" si="13">D23/$B23</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" ref="M23:M24" si="14">E23/$B23</f>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" ref="N23:N24" si="15">F23/$B23</f>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" ref="O23:O24" si="16">G23/$B23</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" ref="P23:P24" si="17">SUM(K23:O23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>43927</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="12"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="13"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="14"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>43928</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="18">B25</f>
+        <v>39</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" ref="K25" si="19">C25/$B25</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" ref="L25" si="20">D25/$B25</f>
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" ref="M25" si="21">E25/$B25</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" ref="N25" si="22">F25/$B25</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" ref="O25" si="23">G25/$B25</f>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" ref="P25" si="24">SUM(K25:O25)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="25">C26+D26+E26+F26+G26</f>
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>43929</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="26">B26</f>
+        <v>48</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" ref="K26" si="27">C26/$B26</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" ref="L26" si="28">D26/$B26</f>
+        <v>0.5625</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" ref="M26" si="29">E26/$B26</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" ref="N26" si="30">F26/$B26</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" ref="O26" si="31">G26/$B26</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" ref="P26" si="32">SUM(K26:O26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="33">C27+D27+E27+F27+G27</f>
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1">
+        <v>43930</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27" si="34">B27</f>
+        <v>55</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27" si="35">C27/$B27</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" ref="L27" si="36">D27/$B27</f>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" ref="M27" si="37">E27/$B27</f>
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" ref="N27" si="38">F27/$B27</f>
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" ref="O27" si="39">G27/$B27</f>
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" ref="P27" si="40">SUM(K27:O27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="41">C28+D28+E28+F28+G28</f>
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>39</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1">
+        <v>43931</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28" si="42">B28</f>
+        <v>69</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" ref="K28" si="43">C28/$B28</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" ref="L28" si="44">D28/$B28</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" ref="M28" si="45">E28/$B28</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" ref="N28" si="46">F28/$B28</f>
+        <v>0.10144927536231885</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" ref="O28" si="47">G28/$B28</f>
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" ref="P28" si="48">SUM(K28:O28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="49">C29+D29+E29+F29+G29</f>
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1">
+        <v>43932</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29" si="50">B29</f>
+        <v>83</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" ref="K29" si="51">C29/$B29</f>
+        <v>7.2289156626506021E-2</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" ref="L29" si="52">D29/$B29</f>
+        <v>0.63855421686746983</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" ref="M29" si="53">E29/$B29</f>
+        <v>0.10843373493975904</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" ref="N29" si="54">F29/$B29</f>
+        <v>8.4337349397590355E-2</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" ref="O29" si="55">G29/$B29</f>
+        <v>9.6385542168674704E-2</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" ref="P29" si="56">SUM(K29:O29)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="57">C30+D30+E30+F30+G30</f>
+        <v>86</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>54</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1">
+        <v>43933</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30" si="58">B30</f>
+        <v>86</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" ref="K30" si="59">C30/$B30</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" ref="L30" si="60">D30/$B30</f>
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" ref="M30" si="61">E30/$B30</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" ref="N30" si="62">F30/$B30</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" ref="O30" si="63">G30/$B30</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" ref="P30" si="64">SUM(K30:O30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="65">C31+D31+E31+F31+G31</f>
+        <v>88</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1">
+        <v>43934</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31" si="66">B31</f>
+        <v>88</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" ref="K31" si="67">C31/$B31</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" ref="L31" si="68">D31/$B31</f>
+        <v>0.67045454545454541</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" ref="M31" si="69">E31/$B31</f>
+        <v>5.6818181818181816E-2</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" ref="N31" si="70">F31/$B31</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" ref="O31" si="71">G31/$B31</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" ref="P31" si="72">SUM(K31:O31)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="73">C32+D32+E32+F32+G32</f>
+        <v>97</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1">
+        <v>43935</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32" si="74">B32</f>
+        <v>97</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" ref="K32" si="75">C32/$B32</f>
+        <v>6.1855670103092786E-2</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" ref="L32" si="76">D32/$B32</f>
+        <v>0.68041237113402064</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" ref="M32" si="77">E32/$B32</f>
+        <v>6.1855670103092786E-2</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" ref="N32" si="78">F32/$B32</f>
+        <v>7.2164948453608241E-2</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" ref="O32" si="79">G32/$B32</f>
+        <v>0.12371134020618557</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" ref="P32" si="80">SUM(K32:O32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="81">C33+D33+E33+F33+G33</f>
+        <v>109</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>79</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="I33" s="1">
+        <v>43936</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33" si="82">B33</f>
+        <v>109</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" ref="K33" si="83">C33/$B33</f>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" ref="L33" si="84">D33/$B33</f>
+        <v>0.72477064220183485</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" ref="M33" si="85">E33/$B33</f>
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" ref="N33" si="86">F33/$B33</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" ref="O33" si="87">G33/$B33</f>
+        <v>0.11009174311926606</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" ref="P33" si="88">SUM(K33:O33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="89">C34+D34+E34+F34+G34</f>
+        <v>117</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1">
+        <v>43937</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34" si="90">B34</f>
+        <v>117</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" ref="K34" si="91">C34/$B34</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" ref="L34" si="92">D34/$B34</f>
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" ref="M34" si="93">E34/$B34</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" ref="N34" si="94">F34/$B34</f>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" ref="O34" si="95">G34/$B34</f>
+        <v>0.11965811965811966</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" ref="P34" si="96">SUM(K34:O34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="97">C35+D35+E35+F35+G35</f>
+        <v>124</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>90</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1">
+        <v>43938</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35" si="98">B35</f>
+        <v>124</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" ref="K35" si="99">C35/$B35</f>
+        <v>5.6451612903225805E-2</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" ref="L35" si="100">D35/$B35</f>
+        <v>0.72580645161290325</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" ref="M35" si="101">E35/$B35</f>
+        <v>5.6451612903225805E-2</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" ref="N35" si="102">F35/$B35</f>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" ref="O35" si="103">G35/$B35</f>
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" ref="P35" si="104">SUM(K35:O35)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="105">C36+D36+E36+F36+G36</f>
+        <v>133</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>98</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1">
+        <v>43939</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36" si="106">B36</f>
+        <v>133</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" ref="K36" si="107">C36/$B36</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" ref="L36" si="108">D36/$B36</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" ref="M36" si="109">E36/$B36</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" ref="N36" si="110">F36/$B36</f>
+        <v>3.7593984962406013E-2</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" ref="O36" si="111">G36/$B36</f>
+        <v>0.12030075187969924</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" ref="P36" si="112">SUM(K36:O36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="113">C37+D37+E37+F37+G37</f>
+        <v>152</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="I37" s="1">
+        <v>43940</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37" si="114">B37</f>
+        <v>152</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" ref="K37" si="115">C37/$B37</f>
+        <v>7.2368421052631582E-2</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" ref="L37" si="116">D37/$B37</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" ref="M37" si="117">E37/$B37</f>
+        <v>4.6052631578947366E-2</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" ref="N37" si="118">F37/$B37</f>
+        <v>3.9473684210526314E-2</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" ref="O37" si="119">G37/$B37</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" ref="P37" si="120">SUM(K37:O37)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:B39" si="121">C38+D38+E38+F38+G38</f>
+        <v>157</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>117</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>17</v>
+      </c>
+      <c r="I38" s="1">
+        <v>43941</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J39" si="122">B38</f>
+        <v>157</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" ref="K38:K39" si="123">C38/$B38</f>
+        <v>7.6433121019108277E-2</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" ref="L38:L39" si="124">D38/$B38</f>
+        <v>0.74522292993630568</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" ref="M38:M39" si="125">E38/$B38</f>
+        <v>3.1847133757961783E-2</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" ref="N38:N39" si="126">F38/$B38</f>
+        <v>3.8216560509554139E-2</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" ref="O38:O39" si="127">G38/$B38</f>
+        <v>0.10828025477707007</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" ref="P38:P39" si="128">SUM(K38:O38)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>43942</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="112"/>
+      <c r="B39">
+        <f t="shared" si="121"/>
         <v>165</v>
       </c>
-      <c r="C19">
+      <c r="C39">
         <v>12</v>
       </c>
-      <c r="D19">
+      <c r="D39">
         <v>124</v>
       </c>
-      <c r="E19">
+      <c r="E39">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F39">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="G39">
         <v>17</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I39" s="1">
         <v>43942</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="113"/>
+      <c r="J39">
+        <f t="shared" si="122"/>
         <v>165</v>
       </c>
-      <c r="K19" s="2">
-        <f t="shared" si="114"/>
+      <c r="K39" s="2">
+        <f t="shared" si="123"/>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="115"/>
+      <c r="L39" s="2">
+        <f t="shared" si="124"/>
         <v>0.75151515151515147</v>
       </c>
-      <c r="M19" s="2">
-        <f t="shared" si="116"/>
+      <c r="M39" s="2">
+        <f t="shared" si="125"/>
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="N19" s="2">
-        <f t="shared" si="117"/>
+      <c r="N39" s="2">
+        <f t="shared" si="126"/>
         <v>4.2424242424242427E-2</v>
       </c>
-      <c r="O19" s="2">
-        <f t="shared" si="118"/>
+      <c r="O39" s="2">
+        <f t="shared" si="127"/>
         <v>0.10303030303030303</v>
       </c>
-      <c r="P19" s="2">
-        <f t="shared" si="119"/>
-        <v>1</v>
+      <c r="P39" s="2">
+        <f t="shared" si="128"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="129">C40+D40+E40+F40+G40</f>
+        <v>182</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>138</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
+      </c>
+      <c r="I40" s="1">
+        <v>43943</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40" si="130">B40</f>
+        <v>182</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" ref="K40" si="131">C40/$B40</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" ref="L40" si="132">D40/$B40</f>
+        <v>0.75824175824175821</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" ref="M40" si="133">E40/$B40</f>
+        <v>1.098901098901099E-2</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" ref="N40" si="134">F40/$B40</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" ref="O40" si="135">G40/$B40</f>
+        <v>0.12087912087912088</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" ref="P40" si="136">SUM(K40:O40)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -1537,15 +2696,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
@@ -1559,7 +2719,7 @@
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1608,74 +2768,77 @@
       <c r="P1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43925</v>
+        <v>43905</v>
       </c>
       <c r="B2">
-        <f>SUM(C2:L2)</f>
+        <f>SUM(C2:P2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B21" si="0">SUM(C3:P3)</f>
         <v>29</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B4" si="0">SUM(C3:L3)</f>
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1711,819 +2874,1953 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43927</v>
+        <v>43907</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B22">
+        <f>SUM(C22:L22)</f>
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:B24" si="1">SUM(C23:L23)</f>
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C4">
+      <c r="C24">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="D24">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>43928</v>
       </c>
-      <c r="B5">
-        <f t="shared" ref="B5" si="1">SUM(C5:L5)</f>
+      <c r="B25">
+        <f t="shared" ref="B25" si="2">SUM(C25:L25)</f>
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="C25">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>43929</v>
       </c>
-      <c r="B6">
-        <f t="shared" ref="B6" si="2">SUM(C6:L6)</f>
+      <c r="B26">
+        <f t="shared" ref="B26" si="3">SUM(C26:L26)</f>
         <v>48</v>
       </c>
-      <c r="C6">
+      <c r="C26">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D26">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E26">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>43930</v>
       </c>
-      <c r="B7">
-        <f t="shared" ref="B7" si="3">SUM(C7:L7)</f>
+      <c r="B27">
+        <f t="shared" ref="B27" si="4">SUM(C27:L27)</f>
         <v>55</v>
       </c>
-      <c r="C7">
+      <c r="C27">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="D27">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E27">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
         <v>7</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>43931</v>
       </c>
-      <c r="B8">
-        <f>SUM(C8:M8)</f>
+      <c r="B28">
+        <f>SUM(C28:M28)</f>
         <v>69</v>
       </c>
-      <c r="C8">
+      <c r="C28">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D28">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="E28">
         <v>19</v>
       </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
         <v>7</v>
       </c>
-      <c r="K8">
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>43932</v>
       </c>
-      <c r="B9">
-        <f>SUM(C9:M9)</f>
+      <c r="B29">
+        <f>SUM(C29:M29)</f>
         <v>83</v>
       </c>
-      <c r="C9">
+      <c r="C29">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E29">
         <v>31</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
         <v>7</v>
       </c>
-      <c r="K9">
+      <c r="K29">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>43933</v>
       </c>
-      <c r="B10">
-        <f>SUM(C10:M10)</f>
+      <c r="B30">
+        <f>SUM(C30:M30)</f>
         <v>86</v>
       </c>
-      <c r="C10">
+      <c r="C30">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="D30">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E30">
         <v>31</v>
       </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>8</v>
       </c>
-      <c r="K10">
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>43934</v>
       </c>
-      <c r="B11">
-        <f>SUM(C11:M11)</f>
+      <c r="B31">
+        <f>SUM(C31:M31)</f>
         <v>88</v>
       </c>
-      <c r="C11">
+      <c r="C31">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="D31">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="E31">
         <v>31</v>
       </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>8</v>
       </c>
-      <c r="K11">
+      <c r="K31">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>43935</v>
       </c>
-      <c r="B12">
-        <f>SUM(C12:M12)</f>
+      <c r="B32">
+        <f>SUM(C32:M32)</f>
         <v>97</v>
       </c>
-      <c r="C12">
+      <c r="C32">
         <v>25</v>
       </c>
-      <c r="D12">
+      <c r="D32">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="E32">
         <v>35</v>
       </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
         <v>9</v>
       </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>43936</v>
       </c>
-      <c r="B13">
-        <f>SUM(C13:N13)</f>
+      <c r="B33">
+        <f>SUM(C33:N33)</f>
         <v>109</v>
       </c>
-      <c r="C13">
+      <c r="C33">
         <v>25</v>
       </c>
-      <c r="D13">
+      <c r="D33">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E33">
         <v>41</v>
       </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <v>14</v>
       </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>43937</v>
       </c>
-      <c r="B14">
-        <f>SUM(C14:N14)</f>
+      <c r="B34">
+        <f>SUM(C34:N34)</f>
         <v>117</v>
       </c>
-      <c r="C14">
+      <c r="C34">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="D34">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="E34">
         <v>49</v>
       </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>14</v>
       </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>43938</v>
       </c>
-      <c r="B15">
-        <f>SUM(C15:O15)</f>
+      <c r="B35">
+        <f>SUM(C35:O35)</f>
         <v>124</v>
       </c>
-      <c r="C15">
+      <c r="C35">
         <v>26</v>
       </c>
-      <c r="D15">
+      <c r="D35">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="E35">
         <v>52</v>
       </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>14</v>
       </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>43939</v>
       </c>
-      <c r="B16">
-        <f>SUM(C16:O16)</f>
+      <c r="B36">
+        <f>SUM(C36:O36)</f>
         <v>133</v>
       </c>
-      <c r="C16">
+      <c r="C36">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="D36">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="E36">
         <v>58</v>
       </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <v>14</v>
       </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
         <v>6</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>43940</v>
       </c>
-      <c r="B17">
-        <f>SUM(C17:O17)</f>
+      <c r="B37">
+        <f>SUM(C37:O37)</f>
         <v>152</v>
       </c>
-      <c r="C17">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D17">
+      <c r="D37">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E37">
         <v>73</v>
       </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
         <v>15</v>
       </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
         <v>6</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>43941</v>
       </c>
-      <c r="B18">
-        <f>SUM(C18:P18)</f>
+      <c r="B38">
+        <f>SUM(C38:P38)</f>
         <v>157</v>
       </c>
-      <c r="C18">
+      <c r="C38">
         <v>27</v>
       </c>
-      <c r="D18">
+      <c r="D38">
         <v>11</v>
       </c>
-      <c r="E18">
+      <c r="E38">
         <v>74</v>
       </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
         <v>5</v>
       </c>
-      <c r="J18">
+      <c r="J38">
         <v>15</v>
       </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
         <v>6</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>43942</v>
       </c>
-      <c r="B19">
-        <f>SUM(C19:P19)</f>
+      <c r="B39">
+        <f>SUM(C39:P39)</f>
         <v>165</v>
       </c>
-      <c r="C19">
+      <c r="C39">
         <v>27</v>
       </c>
-      <c r="D19">
+      <c r="D39">
         <v>12</v>
       </c>
-      <c r="E19">
+      <c r="E39">
         <v>79</v>
       </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19">
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
         <v>6</v>
       </c>
-      <c r="J19">
+      <c r="J39">
         <v>15</v>
       </c>
-      <c r="K19">
-        <v>4</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
         <v>7</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B40">
+        <f>SUM(C40:Q40)</f>
+        <v>182</v>
+      </c>
+      <c r="C40">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>89</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>15</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
         <v>1</v>
       </c>
     </row>
@@ -2534,10 +4831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,6 +5309,18 @@
         <v>165</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="13">C39+B40</f>
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950969DA-02B5-4849-A723-62DD4876CDFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC7735C-B277-4D22-83E9-7169C3FCE86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20235" yWindow="-300" windowWidth="15585" windowHeight="8370" activeTab="1" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="18330" yWindow="-330" windowWidth="15585" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -474,9 +474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
         <v>43905</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B21" si="0">C2+D2+E2+F2+G2</f>
+        <f t="shared" ref="B2" si="0">C2+D2+E2+F2+G2</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -2640,13 +2640,13 @@
       </c>
       <c r="B40">
         <f t="shared" ref="B40" si="129">C40+D40+E40+F40+G40</f>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40">
         <v>13</v>
       </c>
       <c r="D40">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2662,31 +2662,31 @@
       </c>
       <c r="J40">
         <f t="shared" ref="J40" si="130">B40</f>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40" si="131">C40/$B40</f>
-        <v>7.1428571428571425E-2</v>
+        <v>7.18232044198895E-2</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" ref="L40" si="132">D40/$B40</f>
-        <v>0.75824175824175821</v>
+        <v>0.75690607734806625</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" ref="M40" si="133">E40/$B40</f>
-        <v>1.098901098901099E-2</v>
+        <v>1.1049723756906077E-2</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="134">F40/$B40</f>
-        <v>3.8461538461538464E-2</v>
+        <v>3.8674033149171269E-2</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" ref="O40" si="135">G40/$B40</f>
-        <v>0.12087912087912088</v>
+        <v>0.12154696132596685</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" ref="P40" si="136">SUM(K40:O40)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2698,9 +2698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B40">
         <f>SUM(C40:Q40)</f>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40">
         <v>29</v>
@@ -4791,7 +4791,7 @@
         <v>4</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4834,7 +4834,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,11 +5314,11 @@
         <v>43943</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="13">C39+B40</f>
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC7735C-B277-4D22-83E9-7169C3FCE86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7E5AF5-5FB4-48E2-8337-8086F7FEBBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18330" yWindow="-330" windowWidth="15585" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,6 +2689,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="137">C41+D41+E41+F41+G41</f>
+        <v>199</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>153</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>22</v>
+      </c>
+      <c r="I41" s="1">
+        <v>43944</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41" si="138">B41</f>
+        <v>199</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" ref="K41" si="139">C41/$B41</f>
+        <v>6.5326633165829151E-2</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" ref="L41" si="140">D41/$B41</f>
+        <v>0.76884422110552764</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" ref="M41" si="141">E41/$B41</f>
+        <v>1.0050251256281407E-2</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" ref="N41" si="142">F41/$B41</f>
+        <v>4.5226130653266333E-2</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" ref="O41" si="143">G41/$B41</f>
+        <v>0.11055276381909548</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" ref="P41" si="144">SUM(K41:O41)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2696,11 +2751,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4824,6 +4879,60 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B41">
+        <f>SUM(C41:Q41)</f>
+        <v>199</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>96</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>15</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4831,10 +4940,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5321,6 +5430,18 @@
         <v>181</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="14">C40+B41</f>
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/covid-19-bd.xlsx
+++ b/public/covid-19-bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\monitorsonora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7E5AF5-5FB4-48E2-8337-8086F7FEBBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FAC50E-0A96-44D4-A442-38E6F856EB95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
+    <workbookView xWindow="2985" yWindow="825" windowWidth="15585" windowHeight="8370" xr2:uid="{69C15E0C-935F-4AD5-BC61-9BB5DD357911}"/>
   </bookViews>
   <sheets>
     <sheet name="Proporción" sheetId="1" r:id="rId1"/>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19192E84-C698-4952-81E5-A03EABB50D01}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,2201 +546,1376 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43905</v>
+        <v>43921</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2" si="0">C2+D2+E2+F2+G2</f>
-        <v>0</v>
+        <f t="shared" ref="B2:B5" si="0">C2+D2+E2+F2+G2</f>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>43905</v>
+        <v>43921</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J21" si="1">B2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="e">
-        <f t="shared" ref="K2:K21" si="2">C2/$B2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="2" t="e">
-        <f t="shared" ref="L2:L21" si="3">D2/$B2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="2" t="e">
-        <f t="shared" ref="M2:M21" si="4">E2/$B2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="2" t="e">
-        <f t="shared" ref="N2:N21" si="5">F2/$B2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O2" s="2" t="e">
-        <f t="shared" ref="O2:O21" si="6">G2/$B2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P2" s="2" t="e">
-        <f t="shared" ref="P2:P21" si="7">SUM(K2:O2)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J2:J5" si="1">B2</f>
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:K5" si="2">C2/$B2</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:L5" si="3">D2/$B2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" ref="M2:M5" si="4">E2/$B2</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" ref="N2:N5" si="5">F2/$B2</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:O5" si="6">G2/$B2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <f t="shared" ref="P2:P5" si="7">SUM(K2:O2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43906</v>
+        <v>43922</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B21" si="8">C3+D3+E3+F3+G3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>43906</v>
+        <v>43922</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="e">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="2" t="e">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="L3" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="2" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M3" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="2" t="e">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N3" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" s="2" t="e">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="O3" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P3" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43907</v>
+        <v>43923</v>
       </c>
       <c r="B4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>43907</v>
+        <v>43923</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="e">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="2" t="e">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L4" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="2" t="e">
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="M4" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="2" t="e">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="N4" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="2" t="e">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O4" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43908</v>
+        <v>43924</v>
       </c>
       <c r="B5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>43908</v>
+        <v>43924</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="e">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="2" t="e">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="2" t="e">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="M5" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="2" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="2" t="e">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O5" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43909</v>
+        <v>43925</v>
       </c>
       <c r="B6">
+        <f>C6+D6+E6+F6+G6</f>
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43925</v>
+      </c>
+      <c r="J6">
+        <f>B6</f>
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <f>C6/$B6</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ref="L6:O6" si="8">D6/$B6</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>43909</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="8"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <f>SUM(K6:O6)</f>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43910</v>
+        <v>43926</v>
       </c>
       <c r="B7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B7:B9" si="9">C7+D7+E7+F7+G7</f>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>43910</v>
+        <v>43926</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J7:J8" si="10">B7</f>
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K8" si="11">C7/$B7</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7:L8" si="12">D7/$B7</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M8" si="13">E7/$B7</f>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7:N8" si="14">F7/$B7</f>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ref="O7:O8" si="15">G7/$B7</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" ref="P7:P8" si="16">SUM(K7:O7)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43911</v>
+        <v>43927</v>
       </c>
       <c r="B8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1">
-        <v>43911</v>
+        <v>43927</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="12"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="13"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="14"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43912</v>
+        <v>43928</v>
       </c>
       <c r="B9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1">
-        <v>43912</v>
+        <v>43928</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J9" si="17">B9</f>
+        <v>39</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ref="K9" si="18">C9/$B9</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ref="L9" si="19">D9/$B9</f>
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" ref="M9" si="20">E9/$B9</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" ref="N9" si="21">F9/$B9</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" ref="O9" si="22">G9/$B9</f>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" ref="P9" si="23">SUM(K9:O9)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43913</v>
+        <v>43929</v>
       </c>
       <c r="B10">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B10" si="24">C10+D10+E10+F10+G10</f>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1">
-        <v>43913</v>
+        <v>43929</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J10" si="25">B10</f>
+        <v>48</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" ref="K10" si="26">C10/$B10</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10" si="27">D10/$B10</f>
+        <v>0.5625</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ref="M10" si="28">E10/$B10</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" ref="N10" si="29">F10/$B10</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" ref="O10" si="30">G10/$B10</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" ref="P10" si="31">SUM(K10:O10)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43914</v>
+        <v>43930</v>
       </c>
       <c r="B11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B11" si="32">C11+D11+E11+F11+G11</f>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I11" s="1">
-        <v>43914</v>
+        <v>43930</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J11" si="33">B11</f>
+        <v>55</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ref="K11" si="34">C11/$B11</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ref="L11" si="35">D11/$B11</f>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ref="M11" si="36">E11/$B11</f>
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ref="N11" si="37">F11/$B11</f>
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" ref="O11" si="38">G11/$B11</f>
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" ref="P11" si="39">SUM(K11:O11)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="B12">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B12" si="40">C12+D12+E12+F12+G12</f>
+        <v>69</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I12" s="1">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J12" si="41">B12</f>
+        <v>69</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ref="K12" si="42">C12/$B12</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ref="L12" si="43">D12/$B12</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ref="M12" si="44">E12/$B12</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" ref="N12" si="45">F12/$B12</f>
+        <v>0.10144927536231885</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" ref="O12" si="46">G12/$B12</f>
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" ref="P12" si="47">SUM(K12:O12)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="B13">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B13" si="48">C13+D13+E13+F13+G13</f>
+        <v>83</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13" s="1">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J13" si="49">B13</f>
+        <v>83</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" ref="K13" si="50">C13/$B13</f>
+        <v>7.2289156626506021E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13" si="51">D13/$B13</f>
+        <v>0.63855421686746983</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13" si="52">E13/$B13</f>
+        <v>0.10843373493975904</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ref="N13" si="53">F13/$B13</f>
+        <v>8.4337349397590355E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" ref="O13" si="54">G13/$B13</f>
+        <v>9.6385542168674704E-2</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" ref="P13" si="55">SUM(K13:O13)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43917</v>
+        <v>43933</v>
       </c>
       <c r="B14">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B14" si="56">C14+D14+E14+F14+G14</f>
+        <v>86</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1">
-        <v>43917</v>
+        <v>43933</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P14" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J14" si="57">B14</f>
+        <v>86</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" ref="K14" si="58">C14/$B14</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ref="L14" si="59">D14/$B14</f>
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" ref="M14" si="60">E14/$B14</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" ref="N14" si="61">F14/$B14</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" ref="O14" si="62">G14/$B14</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" ref="P14" si="63">SUM(K14:O14)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43918</v>
+        <v>43934</v>
       </c>
       <c r="B15">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B15" si="64">C15+D15+E15+F15+G15</f>
+        <v>88</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I15" s="1">
-        <v>43918</v>
+        <v>43934</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P15" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J15" si="65">B15</f>
+        <v>88</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" ref="K15" si="66">C15/$B15</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" ref="L15" si="67">D15/$B15</f>
+        <v>0.67045454545454541</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15" si="68">E15/$B15</f>
+        <v>5.6818181818181816E-2</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" ref="N15" si="69">F15/$B15</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" ref="O15" si="70">G15/$B15</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" ref="P15" si="71">SUM(K15:O15)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43919</v>
+        <v>43935</v>
       </c>
       <c r="B16">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B16" si="72">C16+D16+E16+F16+G16</f>
+        <v>97</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I16" s="1">
-        <v>43919</v>
+        <v>43935</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J16" si="73">B16</f>
+        <v>97</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16" si="74">C16/$B16</f>
+        <v>6.1855670103092786E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" ref="L16" si="75">D16/$B16</f>
+        <v>0.68041237113402064</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" ref="M16" si="76">E16/$B16</f>
+        <v>6.1855670103092786E-2</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" ref="N16" si="77">F16/$B16</f>
+        <v>7.2164948453608241E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" ref="O16" si="78">G16/$B16</f>
+        <v>0.12371134020618557</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" ref="P16" si="79">SUM(K16:O16)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43920</v>
+        <v>43936</v>
       </c>
       <c r="B17">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B17" si="80">C17+D17+E17+F17+G17</f>
+        <v>109</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I17" s="1">
-        <v>43920</v>
+        <v>43936</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J17" si="81">B17</f>
+        <v>109</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" ref="K17" si="82">C17/$B17</f>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" ref="L17" si="83">D17/$B17</f>
+        <v>0.72477064220183485</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" ref="M17" si="84">E17/$B17</f>
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" ref="N17" si="85">F17/$B17</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" ref="O17" si="86">G17/$B17</f>
+        <v>0.11009174311926606</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" ref="P17" si="87">SUM(K17:O17)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43921</v>
+        <v>43937</v>
       </c>
       <c r="B18">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B18" si="88">C18+D18+E18+F18+G18</f>
+        <v>117</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I18" s="1">
-        <v>43921</v>
+        <v>43937</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J18" si="89">B18</f>
+        <v>117</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" ref="K18" si="90">C18/$B18</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" ref="L18" si="91">D18/$B18</f>
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" ref="M18" si="92">E18/$B18</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ref="N18" si="93">F18/$B18</f>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" ref="O18" si="94">G18/$B18</f>
+        <v>0.11965811965811966</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" ref="P18" si="95">SUM(K18:O18)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43922</v>
+        <v>43938</v>
       </c>
       <c r="B19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B19" si="96">C19+D19+E19+F19+G19</f>
+        <v>124</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I19" s="1">
-        <v>43922</v>
+        <v>43938</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J19" si="97">B19</f>
+        <v>124</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" ref="K19" si="98">C19/$B19</f>
+        <v>5.6451612903225805E-2</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" ref="L19" si="99">D19/$B19</f>
+        <v>0.72580645161290325</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" ref="M19" si="100">E19/$B19</f>
+        <v>5.6451612903225805E-2</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" ref="N19" si="101">F19/$B19</f>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" ref="O19" si="102">G19/$B19</f>
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" ref="P19" si="103">SUM(K19:O19)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="B20">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B20" si="104">C20+D20+E20+F20+G20</f>
+        <v>133</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>43923</v>
+        <v>43939</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J20" si="105">B20</f>
+        <v>133</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" ref="K20" si="106">C20/$B20</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ref="L20" si="107">D20/$B20</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" ref="M20" si="108">E20/$B20</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" ref="N20" si="109">F20/$B20</f>
+        <v>3.7593984962406013E-2</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" ref="O20" si="110">G20/$B20</f>
+        <v>0.12030075187969924</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" ref="P20" si="111">SUM(K20:O20)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43924</v>
+        <v>43940</v>
       </c>
       <c r="B21">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="B21" si="112">C21+D21+E21+F21+G21</f>
+        <v>152</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1">
-        <v>43924</v>
+        <v>43940</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J21" si="113">B21</f>
+        <v>152</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" ref="K21" si="114">C21/$B21</f>
+        <v>7.2368421052631582E-2</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21" si="115">D21/$B21</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" ref="M21" si="116">E21/$B21</f>
+        <v>4.6052631578947366E-2</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" ref="N21" si="117">F21/$B21</f>
+        <v>3.9473684210526314E-2</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" ref="O21" si="118">G21/$B21</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" ref="P21" si="119">SUM(K21:O21)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43925</v>
+        <v>43941</v>
       </c>
       <c r="B22">
-        <f>C22+D22+E22+F22+G22</f>
-        <v>29</v>
+        <f t="shared" ref="B22:B23" si="120">C22+D22+E22+F22+G22</f>
+        <v>157</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I22" s="1">
-        <v>43925</v>
+        <v>43941</v>
       </c>
       <c r="J22">
-        <f>B22</f>
-        <v>29</v>
+        <f t="shared" ref="J22:J23" si="121">B22</f>
+        <v>157</v>
       </c>
       <c r="K22" s="2">
-        <f>C22/$B22</f>
-        <v>6.8965517241379309E-2</v>
+        <f t="shared" ref="K22:K23" si="122">C22/$B22</f>
+        <v>7.6433121019108277E-2</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" ref="L22:O22" si="9">D22/$B22</f>
-        <v>0.51724137931034486</v>
+        <f t="shared" ref="L22:L23" si="123">D22/$B22</f>
+        <v>0.74522292993630568</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="9"/>
-        <v>0.2413793103448276</v>
+        <f t="shared" ref="M22:M23" si="124">E22/$B22</f>
+        <v>3.1847133757961783E-2</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="9"/>
-        <v>0.13793103448275862</v>
+        <f t="shared" ref="N22:N23" si="125">F22/$B22</f>
+        <v>3.8216560509554139E-2</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="9"/>
-        <v>3.4482758620689655E-2</v>
+        <f t="shared" ref="O22:O23" si="126">G22/$B22</f>
+        <v>0.10828025477707007</v>
       </c>
       <c r="P22" s="2">
-        <f>SUM(K22:O22)</f>
-        <v>1.0000000000000002</v>
+        <f t="shared" ref="P22:P23" si="127">SUM(K22:O22)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43926</v>
+        <v>43942</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B25" si="10">C23+D23+E23+F23+G23</f>
-        <v>33</v>
+        <f t="shared" si="120"/>
+        <v>165</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I23" s="1">
-        <v>43926</v>
+        <v>43942</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J24" si="11">B23</f>
-        <v>33</v>
+        <f t="shared" si="121"/>
+        <v>165</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:K24" si="12">C23/$B23</f>
-        <v>6.0606060606060608E-2</v>
+        <f t="shared" si="122"/>
+        <v>7.2727272727272724E-2</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" ref="L23:L24" si="13">D23/$B23</f>
-        <v>0.63636363636363635</v>
+        <f t="shared" si="123"/>
+        <v>0.75151515151515147</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" ref="M23:M24" si="14">E23/$B23</f>
-        <v>0.12121212121212122</v>
+        <f t="shared" si="124"/>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" ref="N23:N24" si="15">F23/$B23</f>
-        <v>0.15151515151515152</v>
+        <f t="shared" si="125"/>
+        <v>4.2424242424242427E-2</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" ref="O23:O24" si="16">G23/$B23</f>
-        <v>3.0303030303030304E-2</v>
+        <f t="shared" si="126"/>
+        <v>0.10303030303030303</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" ref="P23:P24" si="17">SUM(K23:O23)</f>
+        <f t="shared" si="127"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43927</v>
+        <v>43943</v>
       </c>
       <c r="B24">
-        <f t="shared" si="10"/>
-        <v>36</v>
+        <f t="shared" ref="B24" si="128">C24+D24+E24+F24+G24</f>
+        <v>181</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>43927</v>
+        <v>43943</v>
       </c>
       <c r="J24">
-        <f t="shared" si="11"/>
-        <v>36</v>
+        <f t="shared" ref="J24" si="129">B24</f>
+        <v>181</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="12"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="K24" si="130">C24/$B24</f>
+        <v>7.18232044198895E-2</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="13"/>
-        <v>0.52777777777777779</v>
+        <f t="shared" ref="L24" si="131">D24/$B24</f>
+        <v>0.75690607734806625</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="14"/>
-        <v>0.1388888888888889</v>
+        <f t="shared" ref="M24" si="132">E24/$B24</f>
+        <v>1.1049723756906077E-2</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="15"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="N24" si="133">F24/$B24</f>
+        <v>3.8674033149171269E-2</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="O24" si="134">G24/$B24</f>
+        <v>0.12154696132596685</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="P24" si="135">SUM(K24:O24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43928</v>
+        <v>43944</v>
       </c>
       <c r="B25">
-        <f t="shared" si="10"/>
-        <v>39</v>
+        <f t="shared" ref="B25" si="136">C25+D25+E25+F25+G25</f>
+        <v>199</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I25" s="1">
-        <v>43928</v>
+        <v>43944</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25" si="18">B25</f>
-        <v>39</v>
+        <f t="shared" ref="J25" si="137">B25</f>
+        <v>199</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25" si="19">C25/$B25</f>
-        <v>0.10256410256410256</v>
+        <f t="shared" ref="K25" si="138">C25/$B25</f>
+        <v>6.5326633165829151E-2</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" ref="L25" si="20">D25/$B25</f>
-        <v>0.51282051282051277</v>
+        <f t="shared" ref="L25" si="139">D25/$B25</f>
+        <v>0.76884422110552764</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" ref="M25" si="21">E25/$B25</f>
-        <v>0.15384615384615385</v>
+        <f t="shared" ref="M25" si="140">E25/$B25</f>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" ref="N25" si="22">F25/$B25</f>
-        <v>0.10256410256410256</v>
+        <f t="shared" ref="N25" si="141">F25/$B25</f>
+        <v>4.5226130653266333E-2</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" ref="O25" si="23">G25/$B25</f>
-        <v>0.12820512820512819</v>
+        <f t="shared" ref="O25" si="142">G25/$B25</f>
+        <v>0.11055276381909548</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" ref="P25" si="24">SUM(K25:O25)</f>
-        <v>0.99999999999999989</v>
+        <f t="shared" ref="P25" si="143">SUM(K25:O25)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43929</v>
+        <v>43945</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="25">C26+D26+E26+F26+G26</f>
-        <v>48</v>
+        <f t="shared" ref="B26" si="144">C26+D26+E26+F26+G26</f>
+        <v>214</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I26" s="1">
-        <v>43929</v>
+        <v>43945</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26" si="26">B26</f>
-        <v>48</v>
+        <f t="shared" ref="J26" si="145">B26</f>
+        <v>214</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26" si="27">C26/$B26</f>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" ref="K26" si="146">C26/$B26</f>
+        <v>7.9439252336448593E-2</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" ref="L26" si="28">D26/$B26</f>
-        <v>0.5625</v>
+        <f t="shared" ref="L26" si="147">D26/$B26</f>
+        <v>0.75233644859813087</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" ref="M26" si="29">E26/$B26</f>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" ref="M26" si="148">E26/$B26</f>
+        <v>9.3457943925233638E-3</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" ref="N26" si="30">F26/$B26</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" ref="N26" si="149">F26/$B26</f>
+        <v>4.6728971962616821E-2</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" ref="O26" si="31">G26/$B26</f>
-        <v>0.10416666666666667</v>
+        <f t="shared" ref="O26" si="150">G26/$B26</f>
+        <v>0.11214953271028037</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" ref="P26" si="32">SUM(K26:O26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ref="B27" si="33">C27+D27+E27+F27+G27</f>
-        <v>55</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-      <c r="G27">
-        <v>8</v>
-      </c>
-      <c r="I27" s="1">
-        <v>43930</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ref="J27" si="34">B27</f>
-        <v>55</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" ref="K27" si="35">C27/$B27</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" ref="L27" si="36">D27/$B27</f>
-        <v>0.52727272727272723</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" ref="M27" si="37">E27/$B27</f>
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" ref="N27" si="38">F27/$B27</f>
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="O27" s="2">
-        <f t="shared" ref="O27" si="39">G27/$B27</f>
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" ref="P27" si="40">SUM(K27:O27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28" si="41">C28+D28+E28+F28+G28</f>
-        <v>69</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>39</v>
-      </c>
-      <c r="E28">
-        <v>9</v>
-      </c>
-      <c r="F28">
-        <v>7</v>
-      </c>
-      <c r="G28">
-        <v>8</v>
-      </c>
-      <c r="I28" s="1">
-        <v>43931</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ref="J28" si="42">B28</f>
-        <v>69</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" ref="K28" si="43">C28/$B28</f>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" ref="L28" si="44">D28/$B28</f>
-        <v>0.56521739130434778</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" ref="M28" si="45">E28/$B28</f>
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" ref="N28" si="46">F28/$B28</f>
-        <v>0.10144927536231885</v>
-      </c>
-      <c r="O28" s="2">
-        <f t="shared" ref="O28" si="47">G28/$B28</f>
-        <v>0.11594202898550725</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" ref="P28" si="48">SUM(K28:O28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43932</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ref="B29" si="49">C29+D29+E29+F29+G29</f>
-        <v>83</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>53</v>
-      </c>
-      <c r="E29">
-        <v>9</v>
-      </c>
-      <c r="F29">
-        <v>7</v>
-      </c>
-      <c r="G29">
-        <v>8</v>
-      </c>
-      <c r="I29" s="1">
-        <v>43932</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ref="J29" si="50">B29</f>
-        <v>83</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" ref="K29" si="51">C29/$B29</f>
-        <v>7.2289156626506021E-2</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" ref="L29" si="52">D29/$B29</f>
-        <v>0.63855421686746983</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" ref="M29" si="53">E29/$B29</f>
-        <v>0.10843373493975904</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" ref="N29" si="54">F29/$B29</f>
-        <v>8.4337349397590355E-2</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" ref="O29" si="55">G29/$B29</f>
-        <v>9.6385542168674704E-2</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" ref="P29" si="56">SUM(K29:O29)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43933</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ref="B30" si="57">C30+D30+E30+F30+G30</f>
-        <v>86</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>54</v>
-      </c>
-      <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>12</v>
-      </c>
-      <c r="I30" s="1">
-        <v>43933</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ref="J30" si="58">B30</f>
-        <v>86</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" ref="K30" si="59">C30/$B30</f>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" ref="L30" si="60">D30/$B30</f>
-        <v>0.62790697674418605</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" ref="M30" si="61">E30/$B30</f>
-        <v>9.3023255813953487E-2</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" ref="N30" si="62">F30/$B30</f>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="O30" s="2">
-        <f t="shared" ref="O30" si="63">G30/$B30</f>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="P30" s="2">
-        <f t="shared" ref="P30" si="64">SUM(K30:O30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43934</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ref="B31" si="65">C31+D31+E31+F31+G31</f>
-        <v>88</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>59</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31">
-        <v>12</v>
-      </c>
-      <c r="I31" s="1">
-        <v>43934</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ref="J31" si="66">B31</f>
-        <v>88</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" ref="K31" si="67">C31/$B31</f>
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" ref="L31" si="68">D31/$B31</f>
-        <v>0.67045454545454541</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" ref="M31" si="69">E31/$B31</f>
-        <v>5.6818181818181816E-2</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" ref="N31" si="70">F31/$B31</f>
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="O31" s="2">
-        <f t="shared" ref="O31" si="71">G31/$B31</f>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="P31" s="2">
-        <f t="shared" ref="P31" si="72">SUM(K31:O31)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ref="B32" si="73">C32+D32+E32+F32+G32</f>
-        <v>97</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>66</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>7</v>
-      </c>
-      <c r="G32">
-        <v>12</v>
-      </c>
-      <c r="I32" s="1">
-        <v>43935</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ref="J32" si="74">B32</f>
-        <v>97</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" ref="K32" si="75">C32/$B32</f>
-        <v>6.1855670103092786E-2</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" ref="L32" si="76">D32/$B32</f>
-        <v>0.68041237113402064</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" ref="M32" si="77">E32/$B32</f>
-        <v>6.1855670103092786E-2</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" ref="N32" si="78">F32/$B32</f>
-        <v>7.2164948453608241E-2</v>
-      </c>
-      <c r="O32" s="2">
-        <f t="shared" ref="O32" si="79">G32/$B32</f>
-        <v>0.12371134020618557</v>
-      </c>
-      <c r="P32" s="2">
-        <f t="shared" ref="P32" si="80">SUM(K32:O32)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ref="B33" si="81">C33+D33+E33+F33+G33</f>
-        <v>109</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>79</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-      <c r="G33">
-        <v>12</v>
-      </c>
-      <c r="I33" s="1">
-        <v>43936</v>
-      </c>
-      <c r="J33">
-        <f t="shared" ref="J33" si="82">B33</f>
-        <v>109</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" ref="K33" si="83">C33/$B33</f>
-        <v>5.5045871559633031E-2</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" ref="L33" si="84">D33/$B33</f>
-        <v>0.72477064220183485</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" ref="M33" si="85">E33/$B33</f>
-        <v>4.5871559633027525E-2</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" ref="N33" si="86">F33/$B33</f>
-        <v>6.4220183486238536E-2</v>
-      </c>
-      <c r="O33" s="2">
-        <f t="shared" ref="O33" si="87">G33/$B33</f>
-        <v>0.11009174311926606</v>
-      </c>
-      <c r="P33" s="2">
-        <f t="shared" ref="P33" si="88">SUM(K33:O33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ref="B34" si="89">C34+D34+E34+F34+G34</f>
-        <v>117</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>84</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-      <c r="G34">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1">
-        <v>43937</v>
-      </c>
-      <c r="J34">
-        <f t="shared" ref="J34" si="90">B34</f>
-        <v>117</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" ref="K34" si="91">C34/$B34</f>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" ref="L34" si="92">D34/$B34</f>
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" ref="M34" si="93">E34/$B34</f>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" ref="N34" si="94">F34/$B34</f>
-        <v>5.9829059829059832E-2</v>
-      </c>
-      <c r="O34" s="2">
-        <f t="shared" ref="O34" si="95">G34/$B34</f>
-        <v>0.11965811965811966</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" ref="P34" si="96">SUM(K34:O34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ref="B35" si="97">C35+D35+E35+F35+G35</f>
-        <v>124</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>90</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>6</v>
-      </c>
-      <c r="G35">
-        <v>14</v>
-      </c>
-      <c r="I35" s="1">
-        <v>43938</v>
-      </c>
-      <c r="J35">
-        <f t="shared" ref="J35" si="98">B35</f>
-        <v>124</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" ref="K35" si="99">C35/$B35</f>
-        <v>5.6451612903225805E-2</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" ref="L35" si="100">D35/$B35</f>
-        <v>0.72580645161290325</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" ref="M35" si="101">E35/$B35</f>
-        <v>5.6451612903225805E-2</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" ref="N35" si="102">F35/$B35</f>
-        <v>4.8387096774193547E-2</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" ref="O35" si="103">G35/$B35</f>
-        <v>0.11290322580645161</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" ref="P35" si="104">SUM(K35:O35)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43939</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ref="B36" si="105">C36+D36+E36+F36+G36</f>
-        <v>133</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <v>98</v>
-      </c>
-      <c r="E36">
-        <v>7</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>16</v>
-      </c>
-      <c r="I36" s="1">
-        <v>43939</v>
-      </c>
-      <c r="J36">
-        <f t="shared" ref="J36" si="106">B36</f>
-        <v>133</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" ref="K36" si="107">C36/$B36</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" ref="L36" si="108">D36/$B36</f>
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" ref="M36" si="109">E36/$B36</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" ref="N36" si="110">F36/$B36</f>
-        <v>3.7593984962406013E-2</v>
-      </c>
-      <c r="O36" s="2">
-        <f t="shared" ref="O36" si="111">G36/$B36</f>
-        <v>0.12030075187969924</v>
-      </c>
-      <c r="P36" s="2">
-        <f t="shared" ref="P36" si="112">SUM(K36:O36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43940</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ref="B37" si="113">C37+D37+E37+F37+G37</f>
-        <v>152</v>
-      </c>
-      <c r="C37">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>112</v>
-      </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-      <c r="F37">
-        <v>6</v>
-      </c>
-      <c r="G37">
-        <v>16</v>
-      </c>
-      <c r="I37" s="1">
-        <v>43940</v>
-      </c>
-      <c r="J37">
-        <f t="shared" ref="J37" si="114">B37</f>
-        <v>152</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" ref="K37" si="115">C37/$B37</f>
-        <v>7.2368421052631582E-2</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" ref="L37" si="116">D37/$B37</f>
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" ref="M37" si="117">E37/$B37</f>
-        <v>4.6052631578947366E-2</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" ref="N37" si="118">F37/$B37</f>
-        <v>3.9473684210526314E-2</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" ref="O37" si="119">G37/$B37</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="P37" s="2">
-        <f t="shared" ref="P37" si="120">SUM(K37:O37)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43941</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ref="B38:B39" si="121">C38+D38+E38+F38+G38</f>
-        <v>157</v>
-      </c>
-      <c r="C38">
-        <v>12</v>
-      </c>
-      <c r="D38">
-        <v>117</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38">
-        <v>17</v>
-      </c>
-      <c r="I38" s="1">
-        <v>43941</v>
-      </c>
-      <c r="J38">
-        <f t="shared" ref="J38:J39" si="122">B38</f>
-        <v>157</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" ref="K38:K39" si="123">C38/$B38</f>
-        <v>7.6433121019108277E-2</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" ref="L38:L39" si="124">D38/$B38</f>
-        <v>0.74522292993630568</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" ref="M38:M39" si="125">E38/$B38</f>
-        <v>3.1847133757961783E-2</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" ref="N38:N39" si="126">F38/$B38</f>
-        <v>3.8216560509554139E-2</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" ref="O38:O39" si="127">G38/$B38</f>
-        <v>0.10828025477707007</v>
-      </c>
-      <c r="P38" s="2">
-        <f t="shared" ref="P38:P39" si="128">SUM(K38:O38)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43942</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="121"/>
-        <v>165</v>
-      </c>
-      <c r="C39">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>124</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>7</v>
-      </c>
-      <c r="G39">
-        <v>17</v>
-      </c>
-      <c r="I39" s="1">
-        <v>43942</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="122"/>
-        <v>165</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="123"/>
-        <v>7.2727272727272724E-2</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="124"/>
-        <v>0.75151515151515147</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="125"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="126"/>
-        <v>4.2424242424242427E-2</v>
-      </c>
-      <c r="O39" s="2">
-        <f t="shared" si="127"/>
-        <v>0.10303030303030303</v>
-      </c>
-      <c r="P39" s="2">
-        <f t="shared" si="128"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>43943</v>
-      </c>
-      <c r="B40">
-        <f t="shared" ref="B40" si="129">C40+D40+E40+F40+G40</f>
-        <v>181</v>
-      </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>137</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>7</v>
-      </c>
-      <c r="G40">
-        <v>22</v>
-      </c>
-      <c r="I40" s="1">
-        <v>43943</v>
-      </c>
-      <c r="J40">
-        <f t="shared" ref="J40" si="130">B40</f>
-        <v>181</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" ref="K40" si="131">C40/$B40</f>
-        <v>7.18232044198895E-2</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" ref="L40" si="132">D40/$B40</f>
-        <v>0.75690607734806625</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" ref="M40" si="133">E40/$B40</f>
-        <v>1.1049723756906077E-2</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" ref="N40" si="134">F40/$B40</f>
-        <v>3.8674033149171269E-2</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" ref="O40" si="135">G40/$B40</f>
-        <v>0.12154696132596685</v>
-      </c>
-      <c r="P40" s="2">
-        <f t="shared" ref="P40" si="136">SUM(K40:O40)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43944</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ref="B41" si="137">C41+D41+E41+F41+G41</f>
-        <v>199</v>
-      </c>
-      <c r="C41">
-        <v>13</v>
-      </c>
-      <c r="D41">
-        <v>153</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>9</v>
-      </c>
-      <c r="G41">
-        <v>22</v>
-      </c>
-      <c r="I41" s="1">
-        <v>43944</v>
-      </c>
-      <c r="J41">
-        <f t="shared" ref="J41" si="138">B41</f>
-        <v>199</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" ref="K41" si="139">C41/$B41</f>
-        <v>6.5326633165829151E-2</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" ref="L41" si="140">D41/$B41</f>
-        <v>0.76884422110552764</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" ref="M41" si="141">E41/$B41</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" ref="N41" si="142">F41/$B41</f>
-        <v>4.5226130653266333E-2</v>
-      </c>
-      <c r="O41" s="2">
-        <f t="shared" ref="O41" si="143">G41/$B41</f>
-        <v>0.11055276381909548</v>
-      </c>
-      <c r="P41" s="2">
-        <f t="shared" ref="P41" si="144">SUM(K41:O41)</f>
+        <f t="shared" ref="P26" si="151">SUM(K26:O26)</f>
         <v>1</v>
       </c>
     </row>
@@ -2751,11 +1926,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B806B08-CF1D-4A1B-A4AE-551FE020B3F7}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,6 +1947,7 @@
     <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2877,6 +2053,9 @@
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2884,34 +2063,34 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B21" si="0">SUM(C3:P3)</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2926,6 +2105,9 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>0</v>
       </c>
     </row>
@@ -2935,34 +2117,34 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2977,6 +2159,9 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
     </row>
@@ -2986,34 +2171,34 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3028,6 +2213,9 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
       </c>
     </row>
@@ -3037,34 +2225,34 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3079,6 +2267,9 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
       </c>
     </row>
@@ -3088,34 +2279,34 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3130,6 +2321,9 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
     </row>
@@ -3139,34 +2333,34 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3181,6 +2375,9 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
     </row>
@@ -3190,34 +2387,34 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3232,6 +2429,9 @@
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
     </row>
@@ -3240,35 +2440,35 @@
         <v>43913</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" ref="B10:B11" si="1">SUM(C10:P10)</f>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3283,6 +2483,9 @@
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
     </row>
@@ -3291,35 +2494,35 @@
         <v>43914</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3334,6 +2537,9 @@
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
     </row>
@@ -3342,35 +2548,35 @@
         <v>43915</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" ref="B12" si="2">SUM(C12:P12)</f>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3385,6 +2591,9 @@
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>0</v>
       </c>
     </row>
@@ -3393,35 +2602,35 @@
         <v>43916</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" ref="B13:B14" si="3">SUM(C13:P13)</f>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3436,6 +2645,9 @@
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
       </c>
     </row>
@@ -3444,35 +2656,35 @@
         <v>43917</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -3487,6 +2699,9 @@
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>0</v>
       </c>
     </row>
@@ -3495,35 +2710,35 @@
         <v>43918</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" ref="B15" si="4">SUM(C15:P15)</f>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -3538,6 +2753,9 @@
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>0</v>
       </c>
     </row>
@@ -3546,20 +2764,20 @@
         <v>43919</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" ref="B16" si="5">SUM(C16:P16)</f>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -3568,13 +2786,13 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3589,6 +2807,9 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>0</v>
       </c>
     </row>
@@ -3597,20 +2818,20 @@
         <v>43920</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" ref="B17:B18" si="6">SUM(C17:P17)</f>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -3619,13 +2840,13 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3640,6 +2861,9 @@
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>0</v>
       </c>
     </row>
@@ -3648,20 +2872,20 @@
         <v>43921</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -3670,10 +2894,10 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -3691,6 +2915,9 @@
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>0</v>
       </c>
     </row>
@@ -3699,20 +2926,20 @@
         <v>43922</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" ref="B19" si="7">SUM(C19:P19)</f>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -3721,10 +2948,10 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -3742,6 +2969,9 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>0</v>
       </c>
     </row>
@@ -3750,8 +2980,8 @@
         <v>43923</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" ref="B20" si="8">SUM(C20:P20)</f>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -3760,10 +2990,10 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -3772,10 +3002,10 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -3804,8 +3034,8 @@
         <v>43924</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" ref="B21" si="9">SUM(C21:P21)</f>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -3814,10 +3044,10 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -3826,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -3858,7 +3088,7 @@
         <v>43925</v>
       </c>
       <c r="B22">
-        <f>SUM(C22:L22)</f>
+        <f t="shared" ref="B22" si="10">SUM(C22:P22)</f>
         <v>29</v>
       </c>
       <c r="C22">
@@ -3868,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -3880,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3912,7 +3142,7 @@
         <v>43926</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B24" si="1">SUM(C23:L23)</f>
+        <f t="shared" ref="B23" si="11">SUM(C23:P23)</f>
         <v>33</v>
       </c>
       <c r="C23">
@@ -3925,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -3934,7 +3164,7 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3966,8 +3196,8 @@
         <v>43927</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" ref="B24" si="12">SUM(C24:P24)</f>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -3988,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -4020,8 +3250,8 @@
         <v>43928</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="2">SUM(C25:L25)</f>
-        <v>40</v>
+        <f t="shared" ref="B25" si="13">SUM(C25:P25)</f>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>15</v>
@@ -4042,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -4074,7 +3304,7 @@
         <v>43929</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="3">SUM(C26:L26)</f>
+        <f t="shared" ref="B26" si="14">SUM(C26:P26)</f>
         <v>48</v>
       </c>
       <c r="C26">
@@ -4093,10 +3323,10 @@
         <v>2</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -4128,7 +3358,7 @@
         <v>43930</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="4">SUM(C27:L27)</f>
+        <f t="shared" ref="B27" si="15">SUM(C27:L27)</f>
         <v>55</v>
       </c>
       <c r="C27">
@@ -4930,6 +4160,60 @@
         <v>1</v>
       </c>
       <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B42">
+        <f>SUM(C42:Q42)</f>
+        <v>214</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>107</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>7</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
         <v>1</v>
       </c>
     </row>
@@ -4940,15 +4224,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465B67A-AEDE-4A88-9916-DBBF79ED193A}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5440,6 +4724,18 @@
       <c r="C41">
         <f t="shared" ref="C41" si="14">C40+B41</f>
         <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="15">C41+B42</f>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
